--- a/world-height-temperature-country-population-20160805/world-height-temperature-country-population-20160805.xlsx
+++ b/world-height-temperature-country-population-20160805/world-height-temperature-country-population-20160805.xlsx
@@ -26,6 +26,9 @@
     <t>AnnualTemp</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
     <t>MeanHeight</t>
   </si>
   <si>
@@ -41,15 +44,12 @@
     <t>Population</t>
   </si>
   <si>
-    <t>headline</t>
+    <t>Heat vs. Height</t>
   </si>
   <si>
     <t>PopLabel</t>
   </si>
   <si>
-    <t>Heat vs. Height</t>
-  </si>
-  <si>
     <t>NLD</t>
   </si>
   <si>
@@ -113,12 +113,12 @@
     <t>BEL</t>
   </si>
   <si>
+    <t>xlabel</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>xlabel</t>
-  </si>
-  <si>
     <t>Average Male Height (Cm)</t>
   </si>
   <si>
@@ -176,16 +176,25 @@
     <t>10m</t>
   </si>
   <si>
+    <t>annotation_hundredm</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
     <t>HRV</t>
   </si>
   <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>annotation_hundredm</t>
-  </si>
-  <si>
-    <t>100m</t>
+    <t>annotation_threehundredm</t>
+  </si>
+  <si>
+    <t>300m</t>
+  </si>
+  <si>
+    <t>annotation_population-header</t>
   </si>
   <si>
     <t>SRB</t>
@@ -197,12 +206,6 @@
     <t>ISL</t>
   </si>
   <si>
-    <t>annotation_threehundredm</t>
-  </si>
-  <si>
-    <t>300m</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -210,9 +213,6 @@
   </si>
   <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>annotation_population-header</t>
   </si>
   <si>
     <t>DEU</t>
@@ -1233,72 +1233,67 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1311,15 +1306,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,222 +1334,222 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -1560,30 +1558,30 @@
       <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -1592,30 +1590,30 @@
       <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
       <c r="A10" s="12" t="s">
@@ -1624,62 +1622,62 @@
       <c r="B10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
       <c r="A12" s="14" t="s">
@@ -1688,228 +1686,228 @@
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -5835,6 +5833,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5847,26 +5848,26 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -5907,7 +5908,7 @@
         <v>181.698803</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -5918,7 +5919,7 @@
       <c r="G3" s="11">
         <v>1.0414336E7</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H70" si="1">round((G3/1000000),1)</f>
         <v>10.4</v>
       </c>
@@ -5945,7 +5946,7 @@
       <c r="G4" s="11">
         <v>1299371.0</v>
       </c>
-      <c r="H4" s="13" t="str">
+      <c r="H4" s="13">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
@@ -5972,7 +5973,7 @@
       <c r="G5" s="11">
         <v>2231503.0</v>
       </c>
-      <c r="H5" s="13" t="str">
+      <c r="H5" s="13">
         <f t="shared" si="1"/>
         <v>2.2</v>
       </c>
@@ -5999,7 +6000,7 @@
       <c r="G6" s="11">
         <v>5500510.0</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="13">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -6026,14 +6027,14 @@
       <c r="G7" s="11">
         <v>4613414.0</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="13">
         <f t="shared" si="1"/>
         <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9">
         <v>10.47091069</v>
@@ -6042,7 +6043,7 @@
         <v>180.7818566</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -6053,14 +6054,14 @@
       <c r="G8" s="11">
         <v>4489409.0</v>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9" s="9">
         <v>10.17899356</v>
@@ -6069,7 +6070,7 @@
         <v>180.5674062</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -6080,14 +6081,14 @@
       <c r="G9" s="11">
         <v>7379339.0</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9">
         <v>1.351408623</v>
@@ -6096,7 +6097,7 @@
         <v>180.49156</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -6107,14 +6108,14 @@
       <c r="G10" s="11">
         <v>306694.0</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="9">
         <v>7.665499973</v>
@@ -6123,7 +6124,7 @@
         <v>180.1037446</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -6134,7 +6135,7 @@
       <c r="G11" s="11">
         <v>1.0211904E7</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>10.2</v>
       </c>
@@ -6161,7 +6162,7 @@
       <c r="G12" s="11">
         <v>8.2329758E7</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>82.3</v>
       </c>
@@ -6188,9 +6189,9 @@
       <c r="G13" s="11">
         <v>2005692.0</v>
       </c>
-      <c r="H13" s="13" t="str">
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -6215,7 +6216,7 @@
       <c r="G14" s="11">
         <v>4676305.0</v>
       </c>
-      <c r="H14" s="13" t="str">
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
@@ -6242,7 +6243,7 @@
       <c r="G15" s="11">
         <v>6.4057792E7</v>
       </c>
-      <c r="H15" s="13" t="str">
+      <c r="H15" s="13">
         <f t="shared" si="1"/>
         <v>64.1</v>
       </c>
@@ -6269,7 +6270,7 @@
       <c r="G16" s="11">
         <v>9059651.0</v>
       </c>
-      <c r="H16" s="13" t="str">
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
@@ -6296,7 +6297,7 @@
       <c r="G17" s="11">
         <v>5250275.0</v>
       </c>
-      <c r="H17" s="13" t="str">
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
@@ -6323,7 +6324,7 @@
       <c r="G18" s="11">
         <v>5410000.0</v>
       </c>
-      <c r="H18" s="13" t="str">
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
@@ -6350,7 +6351,7 @@
       <c r="G19" s="11">
         <v>2.1262641E7</v>
       </c>
-      <c r="H19" s="13" t="str">
+      <c r="H19" s="13">
         <f t="shared" si="1"/>
         <v>21.3</v>
       </c>
@@ -6377,7 +6378,7 @@
       <c r="G20" s="11">
         <v>3555179.0</v>
       </c>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="13">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
@@ -6404,7 +6405,7 @@
       <c r="G21" s="11">
         <v>4203200.0</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="13">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
@@ -6431,7 +6432,7 @@
       <c r="G22" s="11">
         <v>4.5700395E7</v>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="13">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
@@ -6458,7 +6459,7 @@
       <c r="G23" s="11">
         <v>9648533.0</v>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="13">
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
@@ -6485,7 +6486,7 @@
       <c r="G24" s="11">
         <v>7604467.0</v>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="13">
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
@@ -6512,7 +6513,7 @@
       <c r="G25" s="11">
         <v>2066718.0</v>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="13">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
@@ -6539,7 +6540,7 @@
       <c r="G26" s="11">
         <v>7204687.0</v>
       </c>
-      <c r="H26" s="13" t="str">
+      <c r="H26" s="13">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
@@ -6566,7 +6567,7 @@
       <c r="G27" s="11">
         <v>3.3487208E7</v>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="H27" s="13">
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
@@ -6593,7 +6594,7 @@
       <c r="G28" s="11">
         <v>491775.0</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -6620,7 +6621,7 @@
       <c r="G29" s="11">
         <v>5.8126212E7</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="H29" s="13">
         <f t="shared" si="1"/>
         <v>58.1</v>
       </c>
@@ -6647,7 +6648,7 @@
       <c r="G30" s="11">
         <v>4213418.0</v>
       </c>
-      <c r="H30" s="13" t="str">
+      <c r="H30" s="13">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
@@ -6674,7 +6675,7 @@
       <c r="G31" s="11">
         <v>6.2262E7</v>
       </c>
-      <c r="H31" s="13" t="str">
+      <c r="H31" s="13">
         <f t="shared" si="1"/>
         <v>62.3</v>
       </c>
@@ -6701,7 +6702,7 @@
       <c r="G32" s="11">
         <v>8210281.0</v>
       </c>
-      <c r="H32" s="13" t="str">
+      <c r="H32" s="13">
         <f t="shared" si="1"/>
         <v>8.2</v>
       </c>
@@ -6728,7 +6729,7 @@
       <c r="G33" s="11">
         <v>3.8482919E7</v>
       </c>
-      <c r="H33" s="13" t="str">
+      <c r="H33" s="13">
         <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
@@ -6755,7 +6756,7 @@
       <c r="G34" s="11">
         <v>1.0737428E7</v>
       </c>
-      <c r="H34" s="13" t="str">
+      <c r="H34" s="13">
         <f t="shared" si="1"/>
         <v>10.7</v>
       </c>
@@ -6782,7 +6783,7 @@
       <c r="G35" s="11">
         <v>9905596.0</v>
       </c>
-      <c r="H35" s="13" t="str">
+      <c r="H35" s="13">
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
@@ -6809,9 +6810,9 @@
       <c r="G36" s="11">
         <v>3.13973E8</v>
       </c>
-      <c r="H36" s="13" t="str">
+      <c r="H36" s="13">
         <f t="shared" si="1"/>
-        <v>314.0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
@@ -6836,7 +6837,7 @@
       <c r="G37" s="11">
         <v>7233701.0</v>
       </c>
-      <c r="H37" s="13" t="str">
+      <c r="H37" s="13">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
@@ -6863,7 +6864,7 @@
       <c r="G38" s="11">
         <v>4.0525002E7</v>
       </c>
-      <c r="H38" s="13" t="str">
+      <c r="H38" s="13">
         <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
@@ -6890,9 +6891,9 @@
       <c r="G39" s="11">
         <v>1.40041247E8</v>
       </c>
-      <c r="H39" s="13" t="str">
+      <c r="H39" s="13">
         <f t="shared" si="1"/>
-        <v>140.0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
@@ -6917,7 +6918,7 @@
       <c r="G40" s="11">
         <v>4320748.0</v>
       </c>
-      <c r="H40" s="13" t="str">
+      <c r="H40" s="13">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
@@ -6944,7 +6945,7 @@
       <c r="G41" s="11">
         <v>531640.0</v>
       </c>
-      <c r="H41" s="13" t="str">
+      <c r="H41" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -6971,7 +6972,7 @@
       <c r="G42" s="11">
         <v>4.8508972E7</v>
       </c>
-      <c r="H42" s="13" t="str">
+      <c r="H42" s="13">
         <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
@@ -6998,7 +6999,7 @@
       <c r="G43" s="11">
         <v>2.2215421E7</v>
       </c>
-      <c r="H43" s="13" t="str">
+      <c r="H43" s="13">
         <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
@@ -7025,7 +7026,7 @@
       <c r="G44" s="11">
         <v>4.0913584E7</v>
       </c>
-      <c r="H44" s="13" t="str">
+      <c r="H44" s="13">
         <f t="shared" si="1"/>
         <v>40.9</v>
       </c>
@@ -7052,7 +7053,7 @@
       <c r="G45" s="11">
         <v>2825928.0</v>
       </c>
-      <c r="H45" s="13" t="str">
+      <c r="H45" s="13">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
@@ -7079,9 +7080,9 @@
       <c r="G46" s="11">
         <v>4017095.0</v>
       </c>
-      <c r="H46" s="13" t="str">
+      <c r="H46" s="13">
         <f t="shared" si="1"/>
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -7106,7 +7107,7 @@
       <c r="G47" s="11">
         <v>4615807.0</v>
       </c>
-      <c r="H47" s="13" t="str">
+      <c r="H47" s="13">
         <f t="shared" si="1"/>
         <v>4.6</v>
       </c>
@@ -7133,7 +7134,7 @@
       <c r="G48" s="11">
         <v>7.6805524E7</v>
       </c>
-      <c r="H48" s="13" t="str">
+      <c r="H48" s="13">
         <f t="shared" si="1"/>
         <v>76.8</v>
       </c>
@@ -7160,7 +7161,7 @@
       <c r="G49" s="11">
         <v>1.0486339E7</v>
       </c>
-      <c r="H49" s="13" t="str">
+      <c r="H49" s="13">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
@@ -7187,7 +7188,7 @@
       <c r="G50" s="11">
         <v>944720.0</v>
       </c>
-      <c r="H50" s="13" t="str">
+      <c r="H50" s="13">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -7214,7 +7215,7 @@
       <c r="G51" s="11">
         <v>1310000.0</v>
       </c>
-      <c r="H51" s="13" t="str">
+      <c r="H51" s="13">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
@@ -7241,7 +7242,7 @@
       <c r="G52" s="11">
         <v>6.6429284E7</v>
       </c>
-      <c r="H52" s="13" t="str">
+      <c r="H52" s="13">
         <f t="shared" si="1"/>
         <v>66.4</v>
       </c>
@@ -7268,7 +7269,7 @@
       <c r="G53" s="11">
         <v>1.98739269E8</v>
       </c>
-      <c r="H53" s="13" t="str">
+      <c r="H53" s="13">
         <f t="shared" si="1"/>
         <v>198.7</v>
       </c>
@@ -7295,7 +7296,7 @@
       <c r="G54" s="11">
         <v>6310434.0</v>
       </c>
-      <c r="H54" s="13" t="str">
+      <c r="H54" s="13">
         <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
@@ -7322,7 +7323,7 @@
       <c r="G55" s="11">
         <v>3494382.0</v>
       </c>
-      <c r="H55" s="13" t="str">
+      <c r="H55" s="13">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
@@ -7349,7 +7350,7 @@
       <c r="G56" s="11">
         <v>3639453.0</v>
       </c>
-      <c r="H56" s="13" t="str">
+      <c r="H56" s="13">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
@@ -7376,7 +7377,7 @@
       <c r="G57" s="11">
         <v>1.3711597E7</v>
       </c>
-      <c r="H57" s="13" t="str">
+      <c r="H57" s="13">
         <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
@@ -7403,7 +7404,7 @@
       <c r="G58" s="11">
         <v>1.0707924E7</v>
       </c>
-      <c r="H58" s="13" t="str">
+      <c r="H58" s="13">
         <f t="shared" si="1"/>
         <v>10.7</v>
       </c>
@@ -7430,9 +7431,9 @@
       <c r="G59" s="11">
         <v>6995655.0</v>
       </c>
-      <c r="H59" s="13" t="str">
+      <c r="H59" s="13">
         <f t="shared" si="1"/>
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -7457,7 +7458,7 @@
       <c r="G60" s="11">
         <v>109000.0</v>
       </c>
-      <c r="H60" s="13" t="str">
+      <c r="H60" s="13">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -7484,7 +7485,7 @@
       <c r="G61" s="11">
         <v>9650054.0</v>
       </c>
-      <c r="H61" s="13" t="str">
+      <c r="H61" s="13">
         <f t="shared" si="1"/>
         <v>9.7</v>
       </c>
@@ -7511,7 +7512,7 @@
       <c r="G62" s="11">
         <v>309156.0</v>
       </c>
-      <c r="H62" s="13" t="str">
+      <c r="H62" s="13">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
@@ -7538,7 +7539,7 @@
       <c r="G63" s="11">
         <v>481267.0</v>
       </c>
-      <c r="H63" s="13" t="str">
+      <c r="H63" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -7565,9 +7566,9 @@
       <c r="G64" s="11">
         <v>9035536.0</v>
       </c>
-      <c r="H64" s="13" t="str">
+      <c r="H64" s="13">
         <f t="shared" si="1"/>
-        <v>9.0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -7592,9 +7593,9 @@
       <c r="G65" s="11">
         <v>3971020.0</v>
       </c>
-      <c r="H65" s="13" t="str">
+      <c r="H65" s="13">
         <f t="shared" si="1"/>
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -7619,7 +7620,7 @@
       <c r="G66" s="11">
         <v>2691158.0</v>
       </c>
-      <c r="H66" s="13" t="str">
+      <c r="H66" s="13">
         <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
@@ -7646,9 +7647,9 @@
       <c r="G67" s="11">
         <v>2967004.0</v>
       </c>
-      <c r="H67" s="13" t="str">
+      <c r="H67" s="13">
         <f t="shared" si="1"/>
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -7673,7 +7674,7 @@
       <c r="G68" s="11">
         <v>1.1451652E7</v>
       </c>
-      <c r="H68" s="13" t="str">
+      <c r="H68" s="13">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
@@ -7700,7 +7701,7 @@
       <c r="G69" s="11">
         <v>2.2665345E7</v>
       </c>
-      <c r="H69" s="13" t="str">
+      <c r="H69" s="13">
         <f t="shared" si="1"/>
         <v>22.7</v>
       </c>
@@ -7727,7 +7728,7 @@
       <c r="G70" s="11">
         <v>4884887.0</v>
       </c>
-      <c r="H70" s="13" t="str">
+      <c r="H70" s="13">
         <f t="shared" si="1"/>
         <v>4.9</v>
       </c>
@@ -7780,7 +7781,7 @@
       <c r="G72" s="11">
         <v>1.6601707E7</v>
       </c>
-      <c r="H72" s="13" t="str">
+      <c r="H72" s="13">
         <f t="shared" ref="H72:H146" si="2">round((G72/1000000),1)</f>
         <v>16.6</v>
       </c>
@@ -7807,9 +7808,9 @@
       <c r="G73" s="11">
         <v>1990876.0</v>
       </c>
-      <c r="H73" s="13" t="str">
+      <c r="H73" s="13">
         <f t="shared" si="2"/>
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -7834,7 +7835,7 @@
       <c r="G74" s="11">
         <v>2.6814843E7</v>
       </c>
-      <c r="H74" s="13" t="str">
+      <c r="H74" s="13">
         <f t="shared" si="2"/>
         <v>26.8</v>
       </c>
@@ -7861,7 +7862,7 @@
       <c r="G75" s="11">
         <v>7349145.0</v>
       </c>
-      <c r="H75" s="13" t="str">
+      <c r="H75" s="13">
         <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
@@ -7888,7 +7889,7 @@
       <c r="G76" s="11">
         <v>5431747.0</v>
       </c>
-      <c r="H76" s="13" t="str">
+      <c r="H76" s="13">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
@@ -7915,7 +7916,7 @@
       <c r="G77" s="11">
         <v>1.5399437E7</v>
       </c>
-      <c r="H77" s="13" t="str">
+      <c r="H77" s="13">
         <f t="shared" si="2"/>
         <v>15.4</v>
       </c>
@@ -7942,7 +7943,7 @@
       <c r="G78" s="11">
         <v>1.2666987E7</v>
       </c>
-      <c r="H78" s="13" t="str">
+      <c r="H78" s="13">
         <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
@@ -7969,7 +7970,7 @@
       <c r="G79" s="11">
         <v>6342948.0</v>
       </c>
-      <c r="H79" s="13" t="str">
+      <c r="H79" s="13">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
@@ -7996,7 +7997,7 @@
       <c r="G80" s="11">
         <v>1.27078679E8</v>
       </c>
-      <c r="H80" s="13" t="str">
+      <c r="H80" s="13">
         <f t="shared" si="2"/>
         <v>127.1</v>
       </c>
@@ -8023,7 +8024,7 @@
       <c r="G81" s="11">
         <v>1296000.0</v>
       </c>
-      <c r="H81" s="13" t="str">
+      <c r="H81" s="13">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
@@ -8050,7 +8051,7 @@
       <c r="G82" s="11">
         <v>833285.0</v>
       </c>
-      <c r="H82" s="13" t="str">
+      <c r="H82" s="13">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -8077,7 +8078,7 @@
       <c r="G83" s="11">
         <v>4798491.0</v>
       </c>
-      <c r="H83" s="13" t="str">
+      <c r="H83" s="13">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
@@ -8104,7 +8105,7 @@
       <c r="G84" s="11">
         <v>1.0329208E7</v>
       </c>
-      <c r="H84" s="13" t="str">
+      <c r="H84" s="13">
         <f t="shared" si="2"/>
         <v>10.3</v>
       </c>
@@ -8131,7 +8132,7 @@
       <c r="G85" s="11">
         <v>3.1129225E7</v>
       </c>
-      <c r="H85" s="13" t="str">
+      <c r="H85" s="13">
         <f t="shared" si="2"/>
         <v>31.1</v>
       </c>
@@ -8158,7 +8159,7 @@
       <c r="G86" s="11">
         <v>2.0178485E7</v>
       </c>
-      <c r="H86" s="13" t="str">
+      <c r="H86" s="13">
         <f t="shared" si="2"/>
         <v>20.2</v>
       </c>
@@ -8185,7 +8186,7 @@
       <c r="G87" s="11">
         <v>3.4859364E7</v>
       </c>
-      <c r="H87" s="13" t="str">
+      <c r="H87" s="13">
         <f t="shared" si="2"/>
         <v>34.9</v>
       </c>
@@ -8212,7 +8213,7 @@
       <c r="G88" s="11">
         <v>772298.0</v>
       </c>
-      <c r="H88" s="13" t="str">
+      <c r="H88" s="13">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -8239,7 +8240,7 @@
       <c r="G89" s="11">
         <v>3.4178188E7</v>
       </c>
-      <c r="H89" s="13" t="str">
+      <c r="H89" s="13">
         <f t="shared" si="2"/>
         <v>34.2</v>
       </c>
@@ -8266,7 +8267,7 @@
       <c r="G90" s="11">
         <v>7185218.0</v>
       </c>
-      <c r="H90" s="13" t="str">
+      <c r="H90" s="13">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
@@ -8293,7 +8294,7 @@
       <c r="G91" s="11">
         <v>8238672.0</v>
       </c>
-      <c r="H91" s="13" t="str">
+      <c r="H91" s="13">
         <f t="shared" si="2"/>
         <v>8.2</v>
       </c>
@@ -8320,9 +8321,9 @@
       <c r="G92" s="11">
         <v>3.9002772E7</v>
       </c>
-      <c r="H92" s="13" t="str">
+      <c r="H92" s="13">
         <f t="shared" si="2"/>
-        <v>39.0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
@@ -8347,7 +8348,7 @@
       <c r="G93" s="11">
         <v>4.5644023E7</v>
       </c>
-      <c r="H93" s="13" t="str">
+      <c r="H93" s="13">
         <f t="shared" si="2"/>
         <v>45.6</v>
       </c>
@@ -8374,7 +8375,7 @@
       <c r="G94" s="11">
         <v>2.7606007E7</v>
       </c>
-      <c r="H94" s="13" t="str">
+      <c r="H94" s="13">
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
@@ -8401,7 +8402,7 @@
       <c r="G95" s="11">
         <v>1.5746232E7</v>
       </c>
-      <c r="H95" s="13" t="str">
+      <c r="H95" s="13">
         <f t="shared" si="2"/>
         <v>15.7</v>
       </c>
@@ -8428,7 +8429,7 @@
       <c r="G96" s="11">
         <v>6.590541E7</v>
       </c>
-      <c r="H96" s="13" t="str">
+      <c r="H96" s="13">
         <f t="shared" si="2"/>
         <v>65.9</v>
       </c>
@@ -8455,7 +8456,7 @@
       <c r="G97" s="11">
         <v>3418085.0</v>
       </c>
-      <c r="H97" s="13" t="str">
+      <c r="H97" s="13">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -8482,9 +8483,9 @@
       <c r="G98" s="11">
         <v>3041142.0</v>
       </c>
-      <c r="H98" s="13" t="str">
+      <c r="H98" s="13">
         <f t="shared" si="2"/>
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -8509,7 +8510,7 @@
       <c r="G99" s="11">
         <v>1.11211789E8</v>
       </c>
-      <c r="H99" s="13" t="str">
+      <c r="H99" s="13">
         <f t="shared" si="2"/>
         <v>111.2</v>
       </c>
@@ -8536,7 +8537,7 @@
       <c r="G100" s="11">
         <v>4253877.0</v>
       </c>
-      <c r="H100" s="13" t="str">
+      <c r="H100" s="13">
         <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
@@ -8563,7 +8564,7 @@
       <c r="G101" s="11">
         <v>2.3832495E7</v>
       </c>
-      <c r="H101" s="13" t="str">
+      <c r="H101" s="13">
         <f t="shared" si="2"/>
         <v>23.8</v>
       </c>
@@ -8590,7 +8591,7 @@
       <c r="G102" s="11">
         <v>307899.0</v>
       </c>
-      <c r="H102" s="13" t="str">
+      <c r="H102" s="13">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -8617,7 +8618,7 @@
       <c r="G103" s="11">
         <v>1.26196E7</v>
       </c>
-      <c r="H103" s="13" t="str">
+      <c r="H103" s="13">
         <f t="shared" si="2"/>
         <v>12.6</v>
       </c>
@@ -8644,7 +8645,7 @@
       <c r="G104" s="11">
         <v>3360474.0</v>
       </c>
-      <c r="H104" s="13" t="str">
+      <c r="H104" s="13">
         <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
@@ -8671,7 +8672,7 @@
       <c r="G105" s="11">
         <v>5647168.0</v>
       </c>
-      <c r="H105" s="13" t="str">
+      <c r="H105" s="13">
         <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
@@ -8698,9 +8699,9 @@
       <c r="G106" s="11">
         <v>6019877.0</v>
       </c>
-      <c r="H106" s="13" t="str">
+      <c r="H106" s="13">
         <f t="shared" si="2"/>
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -8725,7 +8726,7 @@
       <c r="G107" s="11">
         <v>1123913.0</v>
       </c>
-      <c r="H107" s="13" t="str">
+      <c r="H107" s="13">
         <f t="shared" si="2"/>
         <v>1.1</v>
       </c>
@@ -8752,7 +8753,7 @@
       <c r="G108" s="11">
         <v>218519.0</v>
       </c>
-      <c r="H108" s="13" t="str">
+      <c r="H108" s="13">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -8779,7 +8780,7 @@
       <c r="G109" s="11">
         <v>1514993.0</v>
       </c>
-      <c r="H109" s="13" t="str">
+      <c r="H109" s="13">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -8806,7 +8807,7 @@
       <c r="G110" s="11">
         <v>1533964.0</v>
       </c>
-      <c r="H110" s="13" t="str">
+      <c r="H110" s="13">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -8833,7 +8834,7 @@
       <c r="G111" s="11">
         <v>2.5715819E7</v>
       </c>
-      <c r="H111" s="13" t="str">
+      <c r="H111" s="13">
         <f t="shared" si="2"/>
         <v>25.7</v>
       </c>
@@ -8860,7 +8861,7 @@
       <c r="G112" s="11">
         <v>1.8879301E7</v>
       </c>
-      <c r="H112" s="13" t="str">
+      <c r="H112" s="13">
         <f t="shared" si="2"/>
         <v>18.9</v>
       </c>
@@ -8887,7 +8888,7 @@
       <c r="G113" s="11">
         <v>1.5306252E7</v>
       </c>
-      <c r="H113" s="13" t="str">
+      <c r="H113" s="13">
         <f t="shared" si="2"/>
         <v>15.3</v>
       </c>
@@ -8914,7 +8915,7 @@
       <c r="G114" s="11">
         <v>2.8686633E7</v>
       </c>
-      <c r="H114" s="13" t="str">
+      <c r="H114" s="13">
         <f t="shared" si="2"/>
         <v>28.7</v>
       </c>
@@ -8941,7 +8942,7 @@
       <c r="G115" s="11">
         <v>1.0057975E7</v>
       </c>
-      <c r="H115" s="13" t="str">
+      <c r="H115" s="13">
         <f t="shared" si="2"/>
         <v>10.1</v>
       </c>
@@ -8968,9 +8969,9 @@
       <c r="G116" s="11">
         <v>4012809.0</v>
       </c>
-      <c r="H116" s="13" t="str">
+      <c r="H116" s="13">
         <f t="shared" si="2"/>
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -8995,7 +8996,7 @@
       <c r="G117" s="11">
         <v>650702.0</v>
       </c>
-      <c r="H117" s="13" t="str">
+      <c r="H117" s="13">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
@@ -9022,7 +9023,7 @@
       <c r="G118" s="11">
         <v>1.2799293E7</v>
       </c>
-      <c r="H118" s="13" t="str">
+      <c r="H118" s="13">
         <f t="shared" si="2"/>
         <v>12.8</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="G119" s="11">
         <v>1.4573101E7</v>
       </c>
-      <c r="H119" s="13" t="str">
+      <c r="H119" s="13">
         <f t="shared" si="2"/>
         <v>14.6</v>
       </c>
@@ -9076,7 +9077,7 @@
       <c r="G120" s="11">
         <v>8791832.0</v>
       </c>
-      <c r="H120" s="13" t="str">
+      <c r="H120" s="13">
         <f t="shared" si="2"/>
         <v>8.8</v>
       </c>
@@ -9103,7 +9104,7 @@
       <c r="G121" s="11">
         <v>2108665.0</v>
       </c>
-      <c r="H121" s="13" t="str">
+      <c r="H121" s="13">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
@@ -9130,7 +9131,7 @@
       <c r="G122" s="11">
         <v>1.76242949E8</v>
       </c>
-      <c r="H122" s="13" t="str">
+      <c r="H122" s="13">
         <f t="shared" si="2"/>
         <v>176.2</v>
       </c>
@@ -9157,7 +9158,7 @@
       <c r="G123" s="11">
         <v>9775246.0</v>
       </c>
-      <c r="H123" s="13" t="str">
+      <c r="H123" s="13">
         <f t="shared" si="2"/>
         <v>9.8</v>
       </c>
@@ -9184,7 +9185,7 @@
       <c r="G124" s="11">
         <v>6.8692542E7</v>
       </c>
-      <c r="H124" s="13" t="str">
+      <c r="H124" s="13">
         <f t="shared" si="2"/>
         <v>68.7</v>
       </c>
@@ -9211,7 +9212,7 @@
       <c r="G125" s="11">
         <v>5891199.0</v>
       </c>
-      <c r="H125" s="13" t="str">
+      <c r="H125" s="13">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
@@ -9238,7 +9239,7 @@
       <c r="G126" s="11">
         <v>8.3082869E7</v>
       </c>
-      <c r="H126" s="13" t="str">
+      <c r="H126" s="13">
         <f t="shared" si="2"/>
         <v>83.1</v>
       </c>
@@ -9265,7 +9266,7 @@
       <c r="G127" s="11">
         <v>4.9052489E7</v>
       </c>
-      <c r="H127" s="13" t="str">
+      <c r="H127" s="13">
         <f t="shared" si="2"/>
         <v>49.1</v>
       </c>
@@ -9292,7 +9293,7 @@
       <c r="G128" s="11">
         <v>4511488.0</v>
       </c>
-      <c r="H128" s="13" t="str">
+      <c r="H128" s="13">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
@@ -9319,9 +9320,9 @@
       <c r="G129" s="11">
         <v>8988091.0</v>
       </c>
-      <c r="H129" s="13" t="str">
+      <c r="H129" s="13">
         <f t="shared" si="2"/>
-        <v>9.0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -9346,7 +9347,7 @@
       <c r="G130" s="11">
         <v>2.594622E7</v>
       </c>
-      <c r="H130" s="13" t="str">
+      <c r="H130" s="13">
         <f t="shared" si="2"/>
         <v>25.9</v>
       </c>
@@ -9373,7 +9374,7 @@
       <c r="G131" s="11">
         <v>9832017.0</v>
       </c>
-      <c r="H131" s="13" t="str">
+      <c r="H131" s="13">
         <f t="shared" si="2"/>
         <v>9.8</v>
       </c>
@@ -9400,7 +9401,7 @@
       <c r="G132" s="11">
         <v>516055.0</v>
       </c>
-      <c r="H132" s="13" t="str">
+      <c r="H132" s="13">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -9427,7 +9428,7 @@
       <c r="G133" s="11">
         <v>2.0617068E7</v>
       </c>
-      <c r="H133" s="13" t="str">
+      <c r="H133" s="13">
         <f t="shared" si="2"/>
         <v>20.6</v>
       </c>
@@ -9454,7 +9455,7 @@
       <c r="G134" s="11">
         <v>1.186274E7</v>
       </c>
-      <c r="H134" s="13" t="str">
+      <c r="H134" s="13">
         <f t="shared" si="2"/>
         <v>11.9</v>
       </c>
@@ -9481,7 +9482,7 @@
       <c r="G135" s="11">
         <v>7792854.0</v>
       </c>
-      <c r="H135" s="13" t="str">
+      <c r="H135" s="13">
         <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
@@ -9508,7 +9509,7 @@
       <c r="G136" s="11">
         <v>8.5237338E7</v>
       </c>
-      <c r="H136" s="13" t="str">
+      <c r="H136" s="13">
         <f t="shared" si="2"/>
         <v>85.2</v>
       </c>
@@ -9535,7 +9536,7 @@
       <c r="G137" s="11">
         <v>734917.0</v>
       </c>
-      <c r="H137" s="13" t="str">
+      <c r="H137" s="13">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
@@ -9562,7 +9563,7 @@
       <c r="G138" s="11">
         <v>1.4922909E8</v>
       </c>
-      <c r="H138" s="13" t="str">
+      <c r="H138" s="13">
         <f t="shared" si="2"/>
         <v>149.2</v>
       </c>
@@ -9589,7 +9590,7 @@
       <c r="G139" s="11">
         <v>2.1324791E7</v>
       </c>
-      <c r="H139" s="13" t="str">
+      <c r="H139" s="13">
         <f t="shared" si="2"/>
         <v>21.3</v>
       </c>
@@ -9616,7 +9617,7 @@
       <c r="G140" s="11">
         <v>3.2369558E7</v>
       </c>
-      <c r="H140" s="13" t="str">
+      <c r="H140" s="13">
         <f t="shared" si="2"/>
         <v>32.4</v>
       </c>
@@ -9643,7 +9644,7 @@
       <c r="G141" s="11">
         <v>2130819.0</v>
       </c>
-      <c r="H141" s="13" t="str">
+      <c r="H141" s="13">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
@@ -9670,7 +9671,7 @@
       <c r="G142" s="11">
         <v>1782893.0</v>
       </c>
-      <c r="H142" s="13" t="str">
+      <c r="H142" s="13">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
@@ -9697,7 +9698,7 @@
       <c r="G143" s="11">
         <v>691141.0</v>
       </c>
-      <c r="H143" s="13" t="str">
+      <c r="H143" s="13">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
@@ -9724,7 +9725,7 @@
       <c r="G144" s="11">
         <v>2.84E7</v>
       </c>
-      <c r="H144" s="13" t="str">
+      <c r="H144" s="13">
         <f t="shared" si="2"/>
         <v>28.4</v>
       </c>
@@ -9751,7 +9752,7 @@
       <c r="G145" s="11">
         <v>2.9546963E7</v>
       </c>
-      <c r="H145" s="13" t="str">
+      <c r="H145" s="13">
         <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
@@ -9778,7 +9779,7 @@
       <c r="G146" s="11">
         <v>388190.0</v>
       </c>
-      <c r="H146" s="13" t="str">
+      <c r="H146" s="13">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
@@ -9831,9 +9832,9 @@
       <c r="G148" s="11">
         <v>4.1048532E7</v>
       </c>
-      <c r="H148" s="13" t="str">
+      <c r="H148" s="13">
         <f t="shared" ref="H148:H168" si="3">round((G148/1000000),1)</f>
-        <v>41.0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149">
@@ -9858,7 +9859,7 @@
       <c r="G149" s="11">
         <v>2.1669278E7</v>
       </c>
-      <c r="H149" s="13" t="str">
+      <c r="H149" s="13">
         <f t="shared" si="3"/>
         <v>21.7</v>
       </c>
@@ -9885,7 +9886,7 @@
       <c r="G150" s="11">
         <v>4.8137741E7</v>
       </c>
-      <c r="H150" s="13" t="str">
+      <c r="H150" s="13">
         <f t="shared" si="3"/>
         <v>48.1</v>
       </c>
@@ -9912,9 +9913,9 @@
       <c r="G151" s="11">
         <v>8.6967524E7</v>
       </c>
-      <c r="H151" s="13" t="str">
+      <c r="H151" s="13">
         <f t="shared" si="3"/>
-        <v>87.0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152">
@@ -9939,7 +9940,7 @@
       <c r="G152" s="11">
         <v>6440053.0</v>
       </c>
-      <c r="H152" s="13" t="str">
+      <c r="H152" s="13">
         <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
@@ -9966,7 +9967,7 @@
       <c r="G153" s="11">
         <v>595613.0</v>
       </c>
-      <c r="H153" s="13" t="str">
+      <c r="H153" s="13">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
@@ -9993,7 +9994,7 @@
       <c r="G154" s="11">
         <v>1.56050883E8</v>
       </c>
-      <c r="H154" s="13" t="str">
+      <c r="H154" s="13">
         <f t="shared" si="3"/>
         <v>156.1</v>
       </c>
@@ -10020,7 +10021,7 @@
       <c r="G155" s="11">
         <v>3441790.0</v>
       </c>
-      <c r="H155" s="13" t="str">
+      <c r="H155" s="13">
         <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
@@ -10047,7 +10048,7 @@
       <c r="G156" s="11">
         <v>6057263.0</v>
       </c>
-      <c r="H156" s="13" t="str">
+      <c r="H156" s="13">
         <f t="shared" si="3"/>
         <v>6.1</v>
       </c>
@@ -10074,7 +10075,7 @@
       <c r="G157" s="11">
         <v>2.40271522E8</v>
       </c>
-      <c r="H157" s="13" t="str">
+      <c r="H157" s="13">
         <f t="shared" si="3"/>
         <v>240.3</v>
       </c>
@@ -10101,7 +10102,7 @@
       <c r="G158" s="11">
         <v>1.3276517E7</v>
       </c>
-      <c r="H158" s="13" t="str">
+      <c r="H158" s="13">
         <f t="shared" si="3"/>
         <v>13.3</v>
       </c>
@@ -10128,7 +10129,7 @@
       <c r="G159" s="11">
         <v>1.4494293E7</v>
       </c>
-      <c r="H159" s="13" t="str">
+      <c r="H159" s="13">
         <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
@@ -10155,7 +10156,7 @@
       <c r="G160" s="11">
         <v>3129486.0</v>
       </c>
-      <c r="H160" s="13" t="str">
+      <c r="H160" s="13">
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
@@ -10182,9 +10183,9 @@
       <c r="G161" s="11">
         <v>9.7976603E7</v>
       </c>
-      <c r="H161" s="13" t="str">
+      <c r="H161" s="13">
         <f t="shared" si="3"/>
-        <v>98.0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162">
@@ -10209,7 +10210,7 @@
       <c r="G162" s="11">
         <v>1.0473282E7</v>
       </c>
-      <c r="H162" s="13" t="str">
+      <c r="H162" s="13">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
@@ -10236,7 +10237,7 @@
       <c r="G163" s="11">
         <v>2.8563377E7</v>
       </c>
-      <c r="H163" s="13" t="str">
+      <c r="H163" s="13">
         <f t="shared" si="3"/>
         <v>28.6</v>
       </c>
@@ -10263,7 +10264,7 @@
       <c r="G164" s="11">
         <v>1.4268711E7</v>
       </c>
-      <c r="H164" s="13" t="str">
+      <c r="H164" s="13">
         <f t="shared" si="3"/>
         <v>14.3</v>
       </c>
@@ -10290,7 +10291,7 @@
       <c r="G165" s="11">
         <v>2.0653556E7</v>
       </c>
-      <c r="H165" s="13" t="str">
+      <c r="H165" s="13">
         <f t="shared" si="3"/>
         <v>20.7</v>
       </c>
@@ -10317,7 +10318,7 @@
       <c r="G166" s="11">
         <v>6834942.0</v>
       </c>
-      <c r="H166" s="13" t="str">
+      <c r="H166" s="13">
         <f t="shared" si="3"/>
         <v>6.8</v>
       </c>
@@ -10344,7 +10345,7 @@
       <c r="G167" s="11">
         <v>2.3822783E7</v>
       </c>
-      <c r="H167" s="13" t="str">
+      <c r="H167" s="13">
         <f t="shared" si="3"/>
         <v>23.8</v>
       </c>
@@ -10371,13 +10372,13 @@
       <c r="G168" s="11">
         <v>1131612.0</v>
       </c>
-      <c r="H168" s="13" t="str">
+      <c r="H168" s="13">
         <f t="shared" si="3"/>
         <v>1.1</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="8" t="s">
         <v>389</v>
       </c>
       <c r="B169" s="18">
@@ -10386,10 +10387,10 @@
       <c r="C169" s="18">
         <v>154.8</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" s="8" t="s">
         <v>390</v>
       </c>
       <c r="G169" s="19">
@@ -10398,7 +10399,7 @@
       <c r="H169" s="13"/>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="8" t="s">
         <v>389</v>
       </c>
       <c r="B170" s="18">
@@ -10407,10 +10408,10 @@
       <c r="C170" s="18">
         <v>155.6</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F170" s="7" t="s">
+      <c r="D170" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>390</v>
       </c>
       <c r="G170" s="19">
@@ -10419,7 +10420,7 @@
       <c r="H170" s="17"/>
     </row>
     <row r="171">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="8" t="s">
         <v>389</v>
       </c>
       <c r="B171" s="18">
@@ -10428,10 +10429,10 @@
       <c r="C171" s="18">
         <v>156.5</v>
       </c>
-      <c r="D171" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F171" s="7" t="s">
+      <c r="D171" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>390</v>
       </c>
       <c r="G171" s="19">
